--- a/학습자료/단답형/고려 왕대사.xlsx
+++ b/학습자료/단답형/고려 왕대사.xlsx
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="8">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="24">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="25">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="27">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="28">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="31">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="32">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="35">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="45">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="47">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="53">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="54">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="57">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="59">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="61">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="66">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="67">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/고려 왕대사.xlsx
+++ b/학습자료/단답형/고려 왕대사.xlsx
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="4">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="9">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="11">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="17">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="18">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="19">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="20">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="22">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="23">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="24">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="28">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="31">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="32">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="35">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="36">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="38">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="48">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="49">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="53">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="54">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="55">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="57">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="62">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="63">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="70">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="72">
